--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 35197-2025</t>
+          <t>A 37417-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45853</v>
+        <v>45155</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.9</v>
+        <v>12.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -795,225 +795,225 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Ullticka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 35197-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Tallticka
 Vintertagging</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35197-2025 artfynd.xlsx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35197-2025 karta.png", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35197-2025 FSC-klagomål.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35197-2025 FSC-klagomål mail.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35197-2025 tillsynsbegäran.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35197-2025 tillsynsbegäran mail.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 35197-2025 prioriterade fågelarter.docx", "A 35197-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 47653-2024</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>45588</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>3</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Backklöver
 Nästrot
 Blåsippa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 47653-2024 artfynd.xlsx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 47653-2024 karta.png", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 47653-2024 FSC-klagomål.docx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 47653-2024 FSC-klagomål mail.docx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 47653-2024 tillsynsbegäran.docx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 47653-2024 tillsynsbegäran mail.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 37417-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45155</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Ullticka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
         <v/>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
         <v>45327</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44242</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44473</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1509,14 +1509,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 35193-2025</t>
+          <t>A 12146-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45853</v>
+        <v>44998.47842592592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1566,14 +1566,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 55962-2023</t>
+          <t>A 32023-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45240</v>
+        <v>45119.49833333334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1623,14 +1623,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 45406-2025</t>
+          <t>A 4524-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45922.42936342592</v>
+        <v>45327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>9.1</v>
+        <v>4.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1680,14 +1680,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 37410-2023</t>
+          <t>A 37415-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>45155</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>20.9</v>
+        <v>6.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1737,14 +1737,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 12156-2023</t>
+          <t>A 55962-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44998.49157407408</v>
+        <v>45240</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1794,14 +1794,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 32023-2023</t>
+          <t>A 11989-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45119.49833333334</v>
+        <v>45728.60074074074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>9.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1851,14 +1851,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 67005-2021</t>
+          <t>A 45406-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44522</v>
+        <v>45922.42936342592</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.3</v>
+        <v>9.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1908,14 +1908,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 23250-2022</t>
+          <t>A 35198-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44719</v>
+        <v>45853</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1927,13 +1927,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1970,14 +1965,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 15732-2025</t>
+          <t>A 35300-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45747</v>
+        <v>45854.41511574074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1989,13 +1984,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2032,14 +2022,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 34202-2022</t>
+          <t>A 37410-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44791.64837962963</v>
+        <v>45155</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2052,7 +2042,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>20.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2089,14 +2079,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 4524-2024</t>
+          <t>A 35193-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45327</v>
+        <v>45853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2109,7 +2099,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2146,14 +2136,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 65836-2021</t>
+          <t>A 12156-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44517</v>
+        <v>44998.49157407408</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2156,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2203,14 +2193,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 12154-2023</t>
+          <t>A 65836-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44998</v>
+        <v>44517</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2213,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2260,14 +2250,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 37415-2023</t>
+          <t>A 34202-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45155</v>
+        <v>44791.64837962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2270,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>6.6</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2317,14 +2307,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 12146-2023</t>
+          <t>A 12154-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44998.47842592592</v>
+        <v>44998</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2327,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2374,14 +2364,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 11989-2025</t>
+          <t>A 67005-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45728.60074074074</v>
+        <v>44522</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2384,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>9.6</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2431,14 +2421,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 23370-2025</t>
+          <t>A 15732-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45791.70907407408</v>
+        <v>45747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2450,8 +2440,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2488,14 +2483,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35300-2025</t>
+          <t>A 23250-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45854.41511574074</v>
+        <v>44719</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2507,8 +2502,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2545,14 +2545,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 35198-2025</t>
+          <t>A 23370-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45853</v>
+        <v>45791.70907407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45155</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45853</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45327</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44242</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44473</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>44998.47842592592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>45119.49833333334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>45327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45155</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>45240</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>45728.60074074074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>45922.42936342592</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>45853</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45854.41511574074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>45155</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44998.49157407408</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44517</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44791.64837962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44998</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44522</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>45747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44719</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>45791.70907407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45155</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45853</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45327</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44242</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44473</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         <v>44998.47842592592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>45119.49833333334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         <v>45327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45155</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>45240</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         <v>45728.60074074074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>45922.42936342592</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>45853</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         <v>45854.41511574074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>45155</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>45853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2143,7 +2143,7 @@
         <v>44998.49157407408</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44517</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>44791.64837962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44998</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44522</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>45747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>44719</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>45791.70907407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 37417-2023</t>
+          <t>A 47653-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45155</v>
+        <v>45588</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>12.9</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -795,225 +795,225 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Backklöver
+Nästrot
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 47653-2024 artfynd.xlsx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 47653-2024 karta.png", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 47653-2024 FSC-klagomål.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 47653-2024 FSC-klagomål mail.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 47653-2024 tillsynsbegäran.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 47653-2024 tillsynsbegäran mail.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 35197-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Tallticka
+Vintertagging</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35197-2025 artfynd.xlsx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35197-2025 karta.png", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35197-2025 FSC-klagomål.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35197-2025 FSC-klagomål mail.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35197-2025 tillsynsbegäran.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35197-2025 tillsynsbegäran mail.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 35197-2025 prioriterade fågelarter.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 37417-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45155</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Ullticka
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 35197-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Tallticka
-Vintertagging</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35197-2025 artfynd.xlsx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35197-2025 karta.png", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35197-2025 FSC-klagomål.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35197-2025 FSC-klagomål mail.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35197-2025 tillsynsbegäran.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35197-2025 tillsynsbegäran mail.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 35197-2025 prioriterade fågelarter.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 47653-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45588</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Backklöver
-Nästrot
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 47653-2024 artfynd.xlsx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 47653-2024 karta.png", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 47653-2024 FSC-klagomål.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 47653-2024 FSC-klagomål mail.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 47653-2024 tillsynsbegäran.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 47653-2024 tillsynsbegäran mail.docx", "A 47653-2024")</f>
         <v/>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
         <v>45327</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44242</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44473</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1509,14 +1509,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 12146-2023</t>
+          <t>A 55962-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44998.47842592592</v>
+        <v>45240</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1566,14 +1566,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 32023-2023</t>
+          <t>A 12156-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45119.49833333334</v>
+        <v>44998.49157407408</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1623,14 +1623,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 4524-2024</t>
+          <t>A 35300-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45327</v>
+        <v>45854.41511574074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1680,14 +1680,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 37415-2023</t>
+          <t>A 35198-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45155</v>
+        <v>45853</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1737,14 +1737,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 55962-2023</t>
+          <t>A 32023-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45240</v>
+        <v>45119.49833333334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1794,14 +1794,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 11989-2025</t>
+          <t>A 23250-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45728.60074074074</v>
+        <v>44719</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1813,8 +1813,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>9.6</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1851,14 +1856,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 45406-2025</t>
+          <t>A 35193-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45922.42936342592</v>
+        <v>45853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1871,7 +1876,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>9.1</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1908,14 +1913,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 35198-2025</t>
+          <t>A 45406-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45853</v>
+        <v>45922.42936342592</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1928,7 +1933,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>9.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1965,14 +1970,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 35300-2025</t>
+          <t>A 15732-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45854.41511574074</v>
+        <v>45747</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1984,8 +1989,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2029,7 +2039,7 @@
         <v>45155</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2079,14 +2089,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 35193-2025</t>
+          <t>A 67005-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45853</v>
+        <v>44522</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2099,7 +2109,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2136,14 +2146,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 12156-2023</t>
+          <t>A 34202-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44998.49157407408</v>
+        <v>44791.64837962963</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2156,7 +2166,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2193,14 +2203,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 65836-2021</t>
+          <t>A 4524-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44517</v>
+        <v>45327</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2213,7 +2223,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2250,14 +2260,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 34202-2022</t>
+          <t>A 65836-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44791.64837962963</v>
+        <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2270,7 +2280,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2314,7 +2324,7 @@
         <v>44998</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2364,14 +2374,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 67005-2021</t>
+          <t>A 37415-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44522</v>
+        <v>45155</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2384,7 +2394,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.3</v>
+        <v>6.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2421,14 +2431,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 15732-2025</t>
+          <t>A 12146-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45747</v>
+        <v>44998.47842592592</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2440,13 +2450,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2483,14 +2488,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 23250-2022</t>
+          <t>A 11989-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44719</v>
+        <v>45728.60074074074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2502,13 +2507,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>9.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>45791.70907407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 47653-2024</t>
+          <t>A 35197-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45588</v>
+        <v>45853</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,17 +771,17 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -804,216 +804,216 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Tallticka
+Vintertagging</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35197-2025 artfynd.xlsx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35197-2025 karta.png", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35197-2025 FSC-klagomål.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35197-2025 FSC-klagomål mail.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35197-2025 tillsynsbegäran.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35197-2025 tillsynsbegäran mail.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 35197-2025 prioriterade fågelarter.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 37417-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45155</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Ullticka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 47653-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45588</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Backklöver
 Nästrot
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 47653-2024 artfynd.xlsx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 47653-2024 karta.png", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 47653-2024 FSC-klagomål.docx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 47653-2024 FSC-klagomål mail.docx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 47653-2024 tillsynsbegäran.docx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 47653-2024 tillsynsbegäran mail.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 35197-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Tallticka
-Vintertagging</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35197-2025 artfynd.xlsx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35197-2025 karta.png", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35197-2025 FSC-klagomål.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35197-2025 FSC-klagomål mail.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35197-2025 tillsynsbegäran.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35197-2025 tillsynsbegäran mail.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 35197-2025 prioriterade fågelarter.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 37417-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45155</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Ullticka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
         <v/>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
         <v>45327</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44242</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44473</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1509,14 +1509,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 55962-2023</t>
+          <t>A 12146-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45240</v>
+        <v>44998.47842592592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1566,14 +1566,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 12156-2023</t>
+          <t>A 32023-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44998.49157407408</v>
+        <v>45119.49833333334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1623,14 +1623,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 35300-2025</t>
+          <t>A 4524-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45854.41511574074</v>
+        <v>45327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>4.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1680,14 +1680,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 35198-2025</t>
+          <t>A 23370-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45853</v>
+        <v>45791.70907407408</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1737,14 +1737,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 32023-2023</t>
+          <t>A 37415-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45119.49833333334</v>
+        <v>45155</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.1</v>
+        <v>6.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1794,14 +1794,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 23250-2022</t>
+          <t>A 55962-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44719</v>
+        <v>45240</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1813,13 +1813,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1856,14 +1851,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 35193-2025</t>
+          <t>A 11989-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45853</v>
+        <v>45728.60074074074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1876,7 +1871,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>9.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1920,7 +1915,7 @@
         <v>45922.42936342592</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1970,14 +1965,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 15732-2025</t>
+          <t>A 35198-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45747</v>
+        <v>45853</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1989,13 +1984,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2032,14 +2022,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 37410-2023</t>
+          <t>A 35300-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45155</v>
+        <v>45854.41511574074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2052,7 +2042,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>20.9</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2089,14 +2079,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 67005-2021</t>
+          <t>A 35193-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44522</v>
+        <v>45853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2109,7 +2099,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2146,14 +2136,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 34202-2022</t>
+          <t>A 37410-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44791.64837962963</v>
+        <v>45155</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2156,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>20.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2203,14 +2193,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 4524-2024</t>
+          <t>A 12156-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45327</v>
+        <v>44998.49157407408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2213,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2267,7 +2257,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2317,14 +2307,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 12154-2023</t>
+          <t>A 34202-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44998</v>
+        <v>44791.64837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2327,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2374,14 +2364,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 37415-2023</t>
+          <t>A 12154-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45155</v>
+        <v>44998</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2384,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6.6</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2431,14 +2421,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 12146-2023</t>
+          <t>A 67005-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44998.47842592592</v>
+        <v>44522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2451,7 +2441,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2488,14 +2478,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 11989-2025</t>
+          <t>A 15732-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45728.60074074074</v>
+        <v>45747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2507,8 +2497,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>9.6</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2545,14 +2540,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 23370-2025</t>
+          <t>A 23250-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45791.70907407408</v>
+        <v>44719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2564,8 +2559,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 35197-2025</t>
+          <t>A 37417-2023</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45853</v>
+        <v>45155</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.9</v>
+        <v>12.9</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -795,225 +795,225 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Ullticka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="U4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 47653-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45588</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Backklöver
+Nästrot
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 47653-2024 artfynd.xlsx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 47653-2024 karta.png", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 47653-2024 FSC-klagomål.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 47653-2024 FSC-klagomål mail.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 47653-2024 tillsynsbegäran.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 47653-2024 tillsynsbegäran mail.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 35197-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Tallticka
 Vintertagging</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35197-2025 artfynd.xlsx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35197-2025 karta.png", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35197-2025 FSC-klagomål.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35197-2025 FSC-klagomål mail.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35197-2025 tillsynsbegäran.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35197-2025 tillsynsbegäran mail.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 35197-2025 prioriterade fågelarter.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 37417-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45155</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Ullticka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 47653-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45588</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Backklöver
-Nästrot
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 47653-2024 artfynd.xlsx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 47653-2024 karta.png", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 47653-2024 FSC-klagomål.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 47653-2024 FSC-klagomål mail.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 47653-2024 tillsynsbegäran.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 47653-2024 tillsynsbegäran mail.docx", "A 47653-2024")</f>
         <v/>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
         <v>45327</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44242</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44473</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1509,14 +1509,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 12146-2023</t>
+          <t>A 55962-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44998.47842592592</v>
+        <v>45240</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1566,14 +1566,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 32023-2023</t>
+          <t>A 12154-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45119.49833333334</v>
+        <v>44998</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1623,14 +1623,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 4524-2024</t>
+          <t>A 37410-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45327</v>
+        <v>45155</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.6</v>
+        <v>20.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1680,14 +1680,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23370-2025</t>
+          <t>A 67005-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45791.70907407408</v>
+        <v>44522</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1737,14 +1737,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 37415-2023</t>
+          <t>A 12156-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45155</v>
+        <v>44998.49157407408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6.6</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1794,14 +1794,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 55962-2023</t>
+          <t>A 37415-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45240</v>
+        <v>45155</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1851,14 +1851,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 11989-2025</t>
+          <t>A 32023-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45728.60074074074</v>
+        <v>45119.49833333334</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>9.6</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1908,14 +1908,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 45406-2025</t>
+          <t>A 35300-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45922.42936342592</v>
+        <v>45854.41511574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>9.1</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>45853</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2022,14 +2022,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 35300-2025</t>
+          <t>A 23250-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45854.41511574074</v>
+        <v>44719</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2041,8 +2041,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2079,14 +2084,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 35193-2025</t>
+          <t>A 34202-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45853</v>
+        <v>44791.64837962963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2099,7 +2104,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2136,14 +2141,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 37410-2023</t>
+          <t>A 35193-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45155</v>
+        <v>45853</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2156,7 +2161,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>20.9</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2193,14 +2198,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 12156-2023</t>
+          <t>A 15732-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44998.49157407408</v>
+        <v>45747</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2212,8 +2217,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2250,14 +2260,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 65836-2021</t>
+          <t>A 4524-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44517</v>
+        <v>45327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2270,7 +2280,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2307,14 +2317,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 34202-2022</t>
+          <t>A 12146-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44791.64837962963</v>
+        <v>44998.47842592592</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2327,7 +2337,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2364,14 +2374,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 12154-2023</t>
+          <t>A 65836-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44998</v>
+        <v>44517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2384,7 +2394,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2421,14 +2431,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 67005-2021</t>
+          <t>A 11989-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44522</v>
+        <v>45728.60074074074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2441,7 +2451,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.3</v>
+        <v>9.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2478,14 +2488,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 15732-2025</t>
+          <t>A 45406-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45747</v>
+        <v>45922.42936342592</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2497,13 +2507,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>9.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2540,14 +2545,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 23250-2022</t>
+          <t>A 23370-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44719</v>
+        <v>45791.70907407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2559,13 +2564,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 37417-2023</t>
+          <t>A 35197-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45155</v>
+        <v>45853</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>12.9</v>
+        <v>0.9</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -795,225 +795,225 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Tallticka
+Vintertagging</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35197-2025 artfynd.xlsx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35197-2025 karta.png", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35197-2025 FSC-klagomål.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35197-2025 FSC-klagomål mail.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35197-2025 tillsynsbegäran.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35197-2025 tillsynsbegäran mail.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 35197-2025 prioriterade fågelarter.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 37417-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45155</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Ullticka
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 47653-2024</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>45588</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>3</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Backklöver
 Nästrot
 Blåsippa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 47653-2024 artfynd.xlsx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 47653-2024 karta.png", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 47653-2024 FSC-klagomål.docx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 47653-2024 FSC-klagomål mail.docx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 47653-2024 tillsynsbegäran.docx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 47653-2024 tillsynsbegäran mail.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 35197-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Tallticka
-Vintertagging</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35197-2025 artfynd.xlsx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35197-2025 karta.png", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35197-2025 FSC-klagomål.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35197-2025 FSC-klagomål mail.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35197-2025 tillsynsbegäran.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35197-2025 tillsynsbegäran mail.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 35197-2025 prioriterade fågelarter.docx", "A 35197-2025")</f>
         <v/>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
         <v>45327</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44242</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45852</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         <v>44473</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1509,14 +1509,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 55962-2023</t>
+          <t>A 12146-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45240</v>
+        <v>44998.47842592592</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1566,14 +1566,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 12154-2023</t>
+          <t>A 32023-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44998</v>
+        <v>45119.49833333334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1623,14 +1623,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 37410-2023</t>
+          <t>A 4524-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45155</v>
+        <v>45327</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>20.9</v>
+        <v>4.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1680,14 +1680,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 67005-2021</t>
+          <t>A 37415-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44522</v>
+        <v>45155</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>6.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1737,14 +1737,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 12156-2023</t>
+          <t>A 55962-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44998.49157407408</v>
+        <v>45240</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1794,14 +1794,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 37415-2023</t>
+          <t>A 11989-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45155</v>
+        <v>45728.60074074074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1851,14 +1851,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 32023-2023</t>
+          <t>A 35198-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45119.49833333334</v>
+        <v>45853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>45854.41511574074</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1965,14 +1965,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 35198-2025</t>
+          <t>A 35193-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>45853</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2022,14 +2022,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 23250-2022</t>
+          <t>A 45406-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44719</v>
+        <v>45922.42936342592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2041,13 +2041,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>9.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2084,14 +2079,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 34202-2022</t>
+          <t>A 37410-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44791.64837962963</v>
+        <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2104,7 +2099,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>20.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2141,14 +2136,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 35193-2025</t>
+          <t>A 12156-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45853</v>
+        <v>44998.49157407408</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2161,7 +2156,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2198,14 +2193,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 15732-2025</t>
+          <t>A 65836-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45747</v>
+        <v>44517</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2217,13 +2212,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2260,14 +2250,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 4524-2024</t>
+          <t>A 34202-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45327</v>
+        <v>44791.64837962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2280,7 +2270,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2317,14 +2307,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 12146-2023</t>
+          <t>A 12154-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44998.47842592592</v>
+        <v>44998</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2337,7 +2327,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2374,14 +2364,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 65836-2021</t>
+          <t>A 67005-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44517</v>
+        <v>44522</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2394,7 +2384,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2431,14 +2421,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 11989-2025</t>
+          <t>A 15732-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45728.60074074074</v>
+        <v>45747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2450,8 +2440,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>9.6</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2488,14 +2483,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 45406-2025</t>
+          <t>A 23250-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45922.42936342592</v>
+        <v>44719</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2507,8 +2502,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>9.1</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>45791.70907407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45853</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45155</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45327</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,14 +1197,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 7946-2021</t>
+          <t>A 47425-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44242</v>
+        <v>44851</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>6.7</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1251,45 +1251,45 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 7946-2021 artfynd.xlsx", "A 7946-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 47425-2022 artfynd.xlsx", "A 47425-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 7946-2021 karta.png", "A 7946-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 47425-2022 karta.png", "A 47425-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 7946-2021 FSC-klagomål.docx", "A 7946-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 47425-2022 FSC-klagomål.docx", "A 47425-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 7946-2021 FSC-klagomål mail.docx", "A 7946-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 47425-2022 FSC-klagomål mail.docx", "A 47425-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 7946-2021 tillsynsbegäran.docx", "A 7946-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 47425-2022 tillsynsbegäran.docx", "A 47425-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 7946-2021 tillsynsbegäran mail.docx", "A 7946-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 47425-2022 tillsynsbegäran mail.docx", "A 47425-2022")</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 47425-2022</t>
+          <t>A 35046-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44851</v>
+        <v>45852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1302,16 +1302,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1336,45 +1336,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 47425-2022 artfynd.xlsx", "A 47425-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35046-2025 artfynd.xlsx", "A 35046-2025")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 47425-2022 karta.png", "A 47425-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35046-2025 karta.png", "A 35046-2025")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 47425-2022 FSC-klagomål.docx", "A 47425-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35046-2025 FSC-klagomål.docx", "A 35046-2025")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 47425-2022 FSC-klagomål mail.docx", "A 47425-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35046-2025 FSC-klagomål mail.docx", "A 35046-2025")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 47425-2022 tillsynsbegäran.docx", "A 47425-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35046-2025 tillsynsbegäran.docx", "A 35046-2025")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 47425-2022 tillsynsbegäran mail.docx", "A 47425-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35046-2025 tillsynsbegäran mail.docx", "A 35046-2025")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 35046-2025</t>
+          <t>A 54890-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45852</v>
+        <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.4</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1411,55 +1411,27 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Tallticka</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35046-2025 artfynd.xlsx", "A 35046-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35046-2025 karta.png", "A 35046-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35046-2025 FSC-klagomål.docx", "A 35046-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35046-2025 FSC-klagomål mail.docx", "A 35046-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35046-2025 tillsynsbegäran.docx", "A 35046-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35046-2025 tillsynsbegäran mail.docx", "A 35046-2025")</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 54890-2021</t>
+          <t>A 12146-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44473</v>
+        <v>44998.47842592592</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1472,7 +1444,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1509,14 +1481,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 12146-2023</t>
+          <t>A 32023-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44998.47842592592</v>
+        <v>45119.49833333334</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1566,14 +1538,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 32023-2023</t>
+          <t>A 4524-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45119.49833333334</v>
+        <v>45327</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1586,7 +1558,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1623,14 +1595,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 4524-2024</t>
+          <t>A 23370-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45327</v>
+        <v>45791.70907407408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1643,7 +1615,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1687,7 +1659,7 @@
         <v>45155</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1744,7 +1716,7 @@
         <v>45240</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1801,7 +1773,7 @@
         <v>45728.60074074074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1851,14 +1823,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 35198-2025</t>
+          <t>A 45406-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45853</v>
+        <v>45922.42936342592</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1871,7 +1843,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.2</v>
+        <v>9.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1908,14 +1880,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 35300-2025</t>
+          <t>A 35198-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45854.41511574074</v>
+        <v>45853</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1928,7 +1900,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1965,14 +1937,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 35193-2025</t>
+          <t>A 35300-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45853</v>
+        <v>45854.41511574074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1985,7 +1957,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2022,14 +1994,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 45406-2025</t>
+          <t>A 35193-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45922.42936342592</v>
+        <v>45853</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2042,7 +2014,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>9.1</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2086,7 +2058,7 @@
         <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2136,14 +2108,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 12156-2023</t>
+          <t>A 8486-2026</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44998.49157407408</v>
+        <v>46064</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2156,7 +2128,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2193,14 +2165,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 65836-2021</t>
+          <t>A 12156-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44517</v>
+        <v>44998.49157407408</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2213,7 +2185,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2250,14 +2222,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 34202-2022</t>
+          <t>A 65836-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44791.64837962963</v>
+        <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2270,7 +2242,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2307,14 +2279,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 12154-2023</t>
+          <t>A 34202-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44998</v>
+        <v>44791.64837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2327,7 +2299,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2364,14 +2336,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 67005-2021</t>
+          <t>A 12154-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44522</v>
+        <v>44998</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2384,7 +2356,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2421,14 +2393,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 15732-2025</t>
+          <t>A 67005-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45747</v>
+        <v>44522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2440,13 +2412,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2483,14 +2450,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 23250-2022</t>
+          <t>A 15732-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44719</v>
+        <v>45747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2504,11 +2471,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2545,14 +2512,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 23370-2025</t>
+          <t>A 23250-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45791.70907407408</v>
+        <v>44719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2564,8 +2531,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45853</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45155</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45327</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44851</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44998.47842592592</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>45119.49833333334</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45327</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>45791.70907407408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>45155</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45240</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>45728.60074074074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>45922.42936342592</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>45853</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>45854.41511574074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45853</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2108,14 +2108,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 8486-2026</t>
+          <t>A 12156-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>46064</v>
+        <v>44998.49157407408</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2165,14 +2165,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 12156-2023</t>
+          <t>A 65836-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44998.49157407408</v>
+        <v>44517</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2222,14 +2222,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 65836-2021</t>
+          <t>A 8486-2026</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44517</v>
+        <v>46064</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>44791.64837962963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>44998</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>44522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>45747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 35197-2025</t>
+          <t>A 47653-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45853</v>
+        <v>45588</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -804,216 +804,216 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Backklöver
+Nästrot
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 47653-2024 artfynd.xlsx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 47653-2024 karta.png", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 47653-2024 FSC-klagomål.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 47653-2024 FSC-klagomål mail.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 47653-2024 tillsynsbegäran.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 47653-2024 tillsynsbegäran mail.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 35197-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Tallticka
 Vintertagging</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35197-2025 artfynd.xlsx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35197-2025 karta.png", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35197-2025 FSC-klagomål.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35197-2025 FSC-klagomål mail.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35197-2025 tillsynsbegäran.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35197-2025 tillsynsbegäran mail.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 35197-2025 prioriterade fågelarter.docx", "A 35197-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 37417-2023</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>45155</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>12.9</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>2</v>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
         <v>3</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Ullticka
 Blåsippa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 47653-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45588</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Backklöver
-Nästrot
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 47653-2024 artfynd.xlsx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 47653-2024 karta.png", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 47653-2024 FSC-klagomål.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 47653-2024 FSC-klagomål mail.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 47653-2024 tillsynsbegäran.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 47653-2024 tillsynsbegäran mail.docx", "A 47653-2024")</f>
         <v/>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
         <v>45327</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44851</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1424,14 +1424,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 12146-2023</t>
+          <t>A 55962-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44998.47842592592</v>
+        <v>45240</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1481,14 +1481,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 32023-2023</t>
+          <t>A 23370-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45119.49833333334</v>
+        <v>45791.70907407408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1538,14 +1538,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 4524-2024</t>
+          <t>A 45406-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45327</v>
+        <v>45922.42936342592</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.6</v>
+        <v>9.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1595,14 +1595,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 23370-2025</t>
+          <t>A 35300-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45791.70907407408</v>
+        <v>45854.41511574074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1652,14 +1652,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 37415-2023</t>
+          <t>A 35198-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45155</v>
+        <v>45853</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1709,14 +1709,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 55962-2023</t>
+          <t>A 12156-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45240</v>
+        <v>44998.49157407408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1766,14 +1766,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 11989-2025</t>
+          <t>A 32023-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45728.60074074074</v>
+        <v>45119.49833333334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>9.6</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1823,14 +1823,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 45406-2025</t>
+          <t>A 35193-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45922.42936342592</v>
+        <v>45853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>9.1</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1880,14 +1880,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 35198-2025</t>
+          <t>A 23250-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45853</v>
+        <v>44719</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1899,8 +1899,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1937,14 +1942,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 35300-2025</t>
+          <t>A 15732-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45854.41511574074</v>
+        <v>45747</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1956,8 +1961,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1994,14 +2004,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 35193-2025</t>
+          <t>A 8486-2026</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45853</v>
+        <v>46064</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2014,7 +2024,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2058,7 +2068,7 @@
         <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2108,14 +2118,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 12156-2023</t>
+          <t>A 67005-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44998.49157407408</v>
+        <v>44522</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2128,7 +2138,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2165,14 +2175,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 65836-2021</t>
+          <t>A 34202-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44517</v>
+        <v>44791.64837962963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2185,7 +2195,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2222,14 +2232,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 8486-2026</t>
+          <t>A 4524-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>46064</v>
+        <v>45327</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2242,7 +2252,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2279,14 +2289,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 34202-2022</t>
+          <t>A 65836-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44791.64837962963</v>
+        <v>44517</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2299,7 +2309,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2343,7 +2353,7 @@
         <v>44998</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,14 +2403,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 67005-2021</t>
+          <t>A 37415-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44522</v>
+        <v>45155</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2413,7 +2423,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.3</v>
+        <v>6.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2450,14 +2460,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 15732-2025</t>
+          <t>A 12146-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45747</v>
+        <v>44998.47842592592</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2469,13 +2479,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2512,14 +2517,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 23250-2022</t>
+          <t>A 11989-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44719</v>
+        <v>45728.60074074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2531,13 +2536,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>9.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 47653-2024</t>
+          <t>A 35197-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45588</v>
+        <v>45853</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,17 +771,17 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -804,216 +804,216 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Tallticka
+Vintertagging</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35197-2025 artfynd.xlsx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35197-2025 karta.png", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35197-2025 FSC-klagomål.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35197-2025 FSC-klagomål mail.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35197-2025 tillsynsbegäran.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35197-2025 tillsynsbegäran mail.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 35197-2025 prioriterade fågelarter.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 37417-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45155</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Ullticka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 47653-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45588</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Backklöver
 Nästrot
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 47653-2024 artfynd.xlsx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 47653-2024 karta.png", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 47653-2024 FSC-klagomål.docx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 47653-2024 FSC-klagomål mail.docx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 47653-2024 tillsynsbegäran.docx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 47653-2024 tillsynsbegäran mail.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 35197-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Tallticka
-Vintertagging</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35197-2025 artfynd.xlsx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35197-2025 karta.png", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35197-2025 FSC-klagomål.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35197-2025 FSC-klagomål mail.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35197-2025 tillsynsbegäran.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35197-2025 tillsynsbegäran mail.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 35197-2025 prioriterade fågelarter.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 37417-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45155</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Ullticka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
         <v/>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
         <v>45327</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44851</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1424,14 +1424,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 55962-2023</t>
+          <t>A 12146-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45240</v>
+        <v>44998.47842592592</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1481,14 +1481,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 23370-2025</t>
+          <t>A 32023-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45791.70907407408</v>
+        <v>45119.49833333334</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1538,14 +1538,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 45406-2025</t>
+          <t>A 4524-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45922.42936342592</v>
+        <v>45327</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>9.1</v>
+        <v>4.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1595,14 +1595,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 35300-2025</t>
+          <t>A 55962-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45854.41511574074</v>
+        <v>45240</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1652,14 +1652,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 35198-2025</t>
+          <t>A 37415-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45853</v>
+        <v>45155</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.2</v>
+        <v>6.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1709,14 +1709,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 12156-2023</t>
+          <t>A 11989-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44998.49157407408</v>
+        <v>45728.60074074074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>9.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1766,14 +1766,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 32023-2023</t>
+          <t>A 35198-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45119.49833333334</v>
+        <v>45853</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1823,14 +1823,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 35193-2025</t>
+          <t>A 35300-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45853</v>
+        <v>45854.41511574074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1880,14 +1880,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 23250-2022</t>
+          <t>A 45406-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44719</v>
+        <v>45922.42936342592</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1899,13 +1899,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>9.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1942,14 +1937,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 15732-2025</t>
+          <t>A 35193-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45747</v>
+        <v>45853</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1961,13 +1956,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2004,14 +1994,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 8486-2026</t>
+          <t>A 37410-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>46064</v>
+        <v>45155</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2024,7 +2014,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>20.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2061,14 +2051,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 37410-2023</t>
+          <t>A 12156-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45155</v>
+        <v>44998.49157407408</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2071,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>20.9</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2118,14 +2108,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 67005-2021</t>
+          <t>A 65836-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44522</v>
+        <v>44517</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2128,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2182,7 +2172,7 @@
         <v>44791.64837962963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2232,14 +2222,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 4524-2024</t>
+          <t>A 12154-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45327</v>
+        <v>44998</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2242,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2289,14 +2279,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 65836-2021</t>
+          <t>A 67005-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44517</v>
+        <v>44522</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2299,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2346,14 +2336,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 12154-2023</t>
+          <t>A 8486-2026</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44998</v>
+        <v>46064</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2356,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2403,14 +2393,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 37415-2023</t>
+          <t>A 15732-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45155</v>
+        <v>45747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2422,8 +2412,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>6.6</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2460,14 +2455,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 12146-2023</t>
+          <t>A 23250-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44998.47842592592</v>
+        <v>44719</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2479,8 +2474,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2517,14 +2517,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 11989-2025</t>
+          <t>A 23370-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45728.60074074074</v>
+        <v>45791.70907407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>9.6</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45853</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45155</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45327</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44851</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44998.47842592592</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>45119.49833333334</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45327</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>45240</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>45155</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45728.60074074074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>45853</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>45854.41511574074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>45922.42936342592</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>45853</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45155</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44998.49157407408</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>44517</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44791.64837962963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>44998</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>44522</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>46064</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44719</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45791.70907407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45853</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45155</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>45588</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45327</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44851</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>44998.47842592592</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>45119.49833333334</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45327</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>45240</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>45155</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45728.60074074074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>45853</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>45854.41511574074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>45922.42936342592</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>45853</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45155</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>44998.49157407408</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>44517</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44791.64837962963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>44998</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         <v>44522</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2343,7 +2343,7 @@
         <v>46064</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45747</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44719</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45791.70907407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 35197-2025</t>
+          <t>A 47653-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45853</v>
+        <v>45588</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -804,307 +804,307 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Backklöver
+Nästrot
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 47653-2024 artfynd.xlsx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 47653-2024 karta.png", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 47653-2024 FSC-klagomål.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 47653-2024 FSC-klagomål mail.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 47653-2024 tillsynsbegäran.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 47653-2024 tillsynsbegäran mail.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 37417-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45155</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Ullticka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 4521-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Talltita
+Bronshjon
+Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 4521-2024 artfynd.xlsx", "A 4521-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 4521-2024 karta.png", "A 4521-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 4521-2024 FSC-klagomål.docx", "A 4521-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 4521-2024 FSC-klagomål mail.docx", "A 4521-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 4521-2024 tillsynsbegäran.docx", "A 4521-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 4521-2024 tillsynsbegäran mail.docx", "A 4521-2024")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 4521-2024 prioriterade fågelarter.docx", "A 4521-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 35197-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Tallticka
 Vintertagging</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35197-2025 artfynd.xlsx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35197-2025 karta.png", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35197-2025 FSC-klagomål.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35197-2025 FSC-klagomål mail.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35197-2025 tillsynsbegäran.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35197-2025 tillsynsbegäran mail.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 35197-2025 prioriterade fågelarter.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 37417-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45155</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Ullticka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 47653-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45588</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Backklöver
-Nästrot
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 47653-2024 artfynd.xlsx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 47653-2024 karta.png", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 47653-2024 FSC-klagomål.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 47653-2024 FSC-klagomål mail.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 47653-2024 tillsynsbegäran.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 47653-2024 tillsynsbegäran mail.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 4521-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45327</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Talltita
-Bronshjon
-Fjällig taggsvamp s.str.</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 4521-2024 artfynd.xlsx", "A 4521-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 4521-2024 karta.png", "A 4521-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 4521-2024 FSC-klagomål.docx", "A 4521-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 4521-2024 FSC-klagomål mail.docx", "A 4521-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 4521-2024 tillsynsbegäran.docx", "A 4521-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 4521-2024 tillsynsbegäran mail.docx", "A 4521-2024")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 4521-2024 prioriterade fågelarter.docx", "A 4521-2024")</f>
         <v/>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44851</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1424,14 +1424,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 12146-2023</t>
+          <t>A 55962-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44998.47842592592</v>
+        <v>45240</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>45119.49833333334</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1538,14 +1538,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 4524-2024</t>
+          <t>A 23250-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45327</v>
+        <v>44719</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1557,8 +1557,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1595,14 +1600,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 55962-2023</t>
+          <t>A 15732-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45240</v>
+        <v>45747</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1614,8 +1619,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1652,14 +1662,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 37415-2023</t>
+          <t>A 37410-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>45155</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1672,7 +1682,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6.6</v>
+        <v>20.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1709,14 +1719,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 11989-2025</t>
+          <t>A 12156-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45728.60074074074</v>
+        <v>44998.49157407408</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1729,7 +1739,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>9.6</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1766,14 +1776,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 35198-2025</t>
+          <t>A 67005-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45853</v>
+        <v>44522</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1786,7 +1796,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1823,14 +1833,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 35300-2025</t>
+          <t>A 34202-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45854.41511574074</v>
+        <v>44791.64837962963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1843,7 +1853,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1880,14 +1890,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 45406-2025</t>
+          <t>A 4524-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45922.42936342592</v>
+        <v>45327</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1900,7 +1910,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>9.1</v>
+        <v>4.6</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1937,14 +1947,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 35193-2025</t>
+          <t>A 65836-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45853</v>
+        <v>44517</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1967,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1994,14 +2004,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 37410-2023</t>
+          <t>A 12154-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45155</v>
+        <v>44998</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2014,7 +2024,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>20.9</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2051,14 +2061,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 12156-2023</t>
+          <t>A 37415-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44998.49157407408</v>
+        <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2071,7 +2081,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>6.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2108,14 +2118,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 65836-2021</t>
+          <t>A 45406-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44517</v>
+        <v>45922.42936342592</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2128,7 +2138,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>9.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2165,14 +2175,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 34202-2022</t>
+          <t>A 12146-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44791.64837962963</v>
+        <v>44998.47842592592</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2185,7 +2195,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2222,14 +2232,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 12154-2023</t>
+          <t>A 11989-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44998</v>
+        <v>45728.60074074074</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2242,7 +2252,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>9.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2279,14 +2289,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 67005-2021</t>
+          <t>A 23370-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44522</v>
+        <v>45791.70907407408</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2299,7 +2309,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2343,7 +2353,7 @@
         <v>46064</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2393,14 +2403,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 15732-2025</t>
+          <t>A 35300-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45747</v>
+        <v>45854.41511574074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2412,13 +2422,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2455,14 +2460,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 23250-2022</t>
+          <t>A 35198-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44719</v>
+        <v>45853</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2474,13 +2479,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2517,14 +2517,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 23370-2025</t>
+          <t>A 35193-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45791.70907407408</v>
+        <v>45853</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 47653-2024</t>
+          <t>A 35197-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45588</v>
+        <v>45853</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,17 +771,17 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -804,307 +804,307 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Tallticka
+Vintertagging</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35197-2025 artfynd.xlsx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35197-2025 karta.png", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35197-2025 FSC-klagomål.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35197-2025 FSC-klagomål mail.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35197-2025 tillsynsbegäran.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35197-2025 tillsynsbegäran mail.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 35197-2025 prioriterade fågelarter.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 37417-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45155</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Ullticka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 47653-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45588</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Backklöver
 Nästrot
 Blåsippa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 47653-2024 artfynd.xlsx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 47653-2024 karta.png", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 47653-2024 FSC-klagomål.docx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 47653-2024 FSC-klagomål mail.docx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 47653-2024 tillsynsbegäran.docx", "A 47653-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 47653-2024 tillsynsbegäran mail.docx", "A 47653-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 37417-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45155</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="H5" t="n">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 4521-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>3</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Ullticka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 4521-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45327</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Talltita
 Bronshjon
 Fjällig taggsvamp s.str.</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 4521-2024 artfynd.xlsx", "A 4521-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 4521-2024 karta.png", "A 4521-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 4521-2024 FSC-klagomål.docx", "A 4521-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 4521-2024 FSC-klagomål mail.docx", "A 4521-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 4521-2024 tillsynsbegäran.docx", "A 4521-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 4521-2024 tillsynsbegäran mail.docx", "A 4521-2024")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 4521-2024 prioriterade fågelarter.docx", "A 4521-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 35197-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Tallticka
-Vintertagging</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35197-2025 artfynd.xlsx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35197-2025 karta.png", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35197-2025 FSC-klagomål.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35197-2025 FSC-klagomål mail.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35197-2025 tillsynsbegäran.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35197-2025 tillsynsbegäran mail.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 35197-2025 prioriterade fågelarter.docx", "A 35197-2025")</f>
         <v/>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44851</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1424,14 +1424,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 55962-2023</t>
+          <t>A 12146-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45240</v>
+        <v>44998.47842592592</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>45119.49833333334</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1538,14 +1538,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 23250-2022</t>
+          <t>A 4524-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44719</v>
+        <v>45327</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1557,13 +1557,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>4.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1600,14 +1595,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 15732-2025</t>
+          <t>A 23370-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45747</v>
+        <v>45791.70907407408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1619,13 +1614,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1662,14 +1652,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 37410-2023</t>
+          <t>A 37415-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>45155</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1682,7 +1672,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>20.9</v>
+        <v>6.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1719,14 +1709,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 12156-2023</t>
+          <t>A 55962-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44998.49157407408</v>
+        <v>45240</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1739,7 +1729,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1776,14 +1766,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 67005-2021</t>
+          <t>A 45406-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44522</v>
+        <v>45922.42936342592</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1796,7 +1786,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>9.1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1833,14 +1823,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 34202-2022</t>
+          <t>A 11989-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44791.64837962963</v>
+        <v>45728.60074074074</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1853,7 +1843,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>9.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1890,14 +1880,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 4524-2024</t>
+          <t>A 35198-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45327</v>
+        <v>45853</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1910,7 +1900,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1947,14 +1937,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 65836-2021</t>
+          <t>A 35300-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44517</v>
+        <v>45854.41511574074</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1967,7 +1957,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2004,14 +1994,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 12154-2023</t>
+          <t>A 35193-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44998</v>
+        <v>45853</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2024,7 +2014,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2061,14 +2051,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 37415-2023</t>
+          <t>A 37410-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>45155</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2081,7 +2071,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6.6</v>
+        <v>20.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2118,14 +2108,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 45406-2025</t>
+          <t>A 12156-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45922.42936342592</v>
+        <v>44998.49157407408</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2138,7 +2128,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>9.1</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2175,14 +2165,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 12146-2023</t>
+          <t>A 65836-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44998.47842592592</v>
+        <v>44517</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2185,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2232,14 +2222,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 11989-2025</t>
+          <t>A 34202-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45728.60074074074</v>
+        <v>44791.64837962963</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2242,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>9.6</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2289,14 +2279,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 23370-2025</t>
+          <t>A 8486-2026</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45791.70907407408</v>
+        <v>46064</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2299,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2346,14 +2336,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 8486-2026</t>
+          <t>A 12154-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>46064</v>
+        <v>44998</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2356,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2403,14 +2393,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 35300-2025</t>
+          <t>A 67005-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45854.41511574074</v>
+        <v>44522</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2413,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2460,14 +2450,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35198-2025</t>
+          <t>A 15732-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45853</v>
+        <v>45747</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2479,8 +2469,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2517,14 +2512,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 35193-2025</t>
+          <t>A 23250-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45853</v>
+        <v>44719</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2536,8 +2531,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -751,14 +751,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 35197-2025</t>
+          <t>A 47653-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45853</v>
+        <v>45588</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -804,307 +804,307 @@
         <v>3</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Backklöver
+Nästrot
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 47653-2024 artfynd.xlsx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 47653-2024 karta.png", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 47653-2024 FSC-klagomål.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 47653-2024 FSC-klagomål mail.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 47653-2024 tillsynsbegäran.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 47653-2024 tillsynsbegäran mail.docx", "A 47653-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 37417-2023</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45155</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Ullticka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 4521-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Talltita
+Bronshjon
+Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 4521-2024 artfynd.xlsx", "A 4521-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 4521-2024 karta.png", "A 4521-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 4521-2024 FSC-klagomål.docx", "A 4521-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 4521-2024 FSC-klagomål mail.docx", "A 4521-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 4521-2024 tillsynsbegäran.docx", "A 4521-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 4521-2024 tillsynsbegäran mail.docx", "A 4521-2024")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 4521-2024 prioriterade fågelarter.docx", "A 4521-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 35197-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Tallticka
 Vintertagging</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35197-2025 artfynd.xlsx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35197-2025 karta.png", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35197-2025 FSC-klagomål.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35197-2025 FSC-klagomål mail.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35197-2025 tillsynsbegäran.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35197-2025 tillsynsbegäran mail.docx", "A 35197-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 35197-2025 prioriterade fågelarter.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 37417-2023</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45155</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Ullticka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 47653-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45588</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Backklöver
-Nästrot
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 47653-2024 artfynd.xlsx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 47653-2024 karta.png", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 47653-2024 FSC-klagomål.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 47653-2024 FSC-klagomål mail.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 47653-2024 tillsynsbegäran.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 47653-2024 tillsynsbegäran mail.docx", "A 47653-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 4521-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45327</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Talltita
-Bronshjon
-Fjällig taggsvamp s.str.</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 4521-2024 artfynd.xlsx", "A 4521-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 4521-2024 karta.png", "A 4521-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 4521-2024 FSC-klagomål.docx", "A 4521-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 4521-2024 FSC-klagomål mail.docx", "A 4521-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 4521-2024 tillsynsbegäran.docx", "A 4521-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 4521-2024 tillsynsbegäran mail.docx", "A 4521-2024")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 4521-2024 prioriterade fågelarter.docx", "A 4521-2024")</f>
         <v/>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44851</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1424,14 +1424,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 12146-2023</t>
+          <t>A 37410-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44998.47842592592</v>
+        <v>45155</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>20.9</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1481,14 +1481,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 32023-2023</t>
+          <t>A 55962-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45119.49833333334</v>
+        <v>45240</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1538,14 +1538,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 4524-2024</t>
+          <t>A 12156-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45327</v>
+        <v>44998.49157407408</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1595,14 +1595,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 23370-2025</t>
+          <t>A 12146-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45791.70907407408</v>
+        <v>44998.47842592592</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1652,14 +1652,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 37415-2023</t>
+          <t>A 32023-2023</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45155</v>
+        <v>45119.49833333334</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6.6</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1709,14 +1709,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 55962-2023</t>
+          <t>A 11989-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45240</v>
+        <v>45728.60074074074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>9.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1766,14 +1766,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 45406-2025</t>
+          <t>A 23250-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45922.42936342592</v>
+        <v>44719</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1785,8 +1785,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>9.1</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1823,14 +1828,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 11989-2025</t>
+          <t>A 15732-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45728.60074074074</v>
+        <v>45747</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1842,8 +1847,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>9.6</v>
+        <v>1.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1880,14 +1890,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 35198-2025</t>
+          <t>A 67005-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45853</v>
+        <v>44522</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1900,7 +1910,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1937,14 +1947,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 35300-2025</t>
+          <t>A 23370-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45854.41511574074</v>
+        <v>45791.70907407408</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1957,7 +1967,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1994,14 +2004,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 35193-2025</t>
+          <t>A 45406-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45853</v>
+        <v>45922.42936342592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2014,7 +2024,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>9.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2051,14 +2061,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 37410-2023</t>
+          <t>A 34202-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45155</v>
+        <v>44791.64837962963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2071,7 +2081,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>20.9</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2108,14 +2118,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 12156-2023</t>
+          <t>A 4524-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44998.49157407408</v>
+        <v>45327</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2128,7 +2138,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2165,14 +2175,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 65836-2021</t>
+          <t>A 35300-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44517</v>
+        <v>45854.41511574074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2185,7 +2195,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2222,14 +2232,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 34202-2022</t>
+          <t>A 35198-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44791.64837962963</v>
+        <v>45853</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2242,7 +2252,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2279,14 +2289,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 8486-2026</t>
+          <t>A 35193-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>46064</v>
+        <v>45853</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2299,7 +2309,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2336,14 +2346,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 12154-2023</t>
+          <t>A 65836-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44998</v>
+        <v>44517</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2356,7 +2366,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2393,14 +2403,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 67005-2021</t>
+          <t>A 12154-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44522</v>
+        <v>44998</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2413,7 +2423,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2450,14 +2460,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 15732-2025</t>
+          <t>A 37415-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45747</v>
+        <v>45155</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2469,13 +2479,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>6.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2512,14 +2517,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 23250-2022</t>
+          <t>A 8486-2026</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44719</v>
+        <v>46064</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2529,11 +2534,6 @@
       <c r="E31" t="inlineStr">
         <is>
           <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G31" t="n">

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45588</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,14 +838,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 37417-2023</t>
+          <t>A 35197-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45155</v>
+        <v>45853</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -858,19 +858,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>12.9</v>
+        <v>0.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -882,229 +882,229 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Tallticka
+Vintertagging</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35197-2025 artfynd.xlsx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35197-2025 karta.png", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35197-2025 FSC-klagomål.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35197-2025 FSC-klagomål mail.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35197-2025 tillsynsbegäran.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35197-2025 tillsynsbegäran mail.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 35197-2025 prioriterade fågelarter.docx", "A 35197-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 37417-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45155</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Ullticka
 Blåsippa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 37417-2023 artfynd.xlsx", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 37417-2023 karta.png", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/knärot/A 37417-2023 karta knärot.png", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 37417-2023 FSC-klagomål.docx", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 37417-2023 FSC-klagomål mail.docx", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 37417-2023 tillsynsbegäran.docx", "A 37417-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 37417-2023 tillsynsbegäran mail.docx", "A 37417-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 4521-2024</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>45327</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C7" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HÅBO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>17.4</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>3</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Talltita
 Bronshjon
 Fjällig taggsvamp s.str.</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 4521-2024 artfynd.xlsx", "A 4521-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 4521-2024 karta.png", "A 4521-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 4521-2024 FSC-klagomål.docx", "A 4521-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 4521-2024 FSC-klagomål mail.docx", "A 4521-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 4521-2024 tillsynsbegäran.docx", "A 4521-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 4521-2024 tillsynsbegäran mail.docx", "A 4521-2024")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 4521-2024 prioriterade fågelarter.docx", "A 4521-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 35197-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HÅBO</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Tallticka
-Vintertagging</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/artfynd/A 35197-2025 artfynd.xlsx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/kartor/A 35197-2025 karta.png", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomål/A 35197-2025 FSC-klagomål.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/klagomålsmail/A 35197-2025 FSC-klagomål mail.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsyn/A 35197-2025 tillsynsbegäran.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/tillsynsmail/A 35197-2025 tillsynsbegäran mail.docx", "A 35197-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0305/fåglar/A 35197-2025 prioriterade fågelarter.docx", "A 35197-2025")</f>
         <v/>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44851</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1424,14 +1424,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 37410-2023</t>
+          <t>A 55962-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45155</v>
+        <v>45240</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>20.9</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1481,14 +1481,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 55962-2023</t>
+          <t>A 12156-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45240</v>
+        <v>44998.49157407408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1538,14 +1538,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 12156-2023</t>
+          <t>A 32023-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44998.49157407408</v>
+        <v>45119.49833333334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1595,14 +1595,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 12146-2023</t>
+          <t>A 35300-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44998.47842592592</v>
+        <v>45854.41511574074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1652,14 +1652,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 32023-2023</t>
+          <t>A 35198-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45119.49833333334</v>
+        <v>45853</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1709,14 +1709,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 11989-2025</t>
+          <t>A 45406-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45728.60074074074</v>
+        <v>45922.42936342592</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>44719</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1828,14 +1828,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 15732-2025</t>
+          <t>A 35193-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45747</v>
+        <v>45853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1847,13 +1847,8 @@
           <t>HÅBO</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1890,14 +1885,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 67005-2021</t>
+          <t>A 15732-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44522</v>
+        <v>45747</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1909,8 +1904,13 @@
           <t>HÅBO</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1947,14 +1947,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 23370-2025</t>
+          <t>A 37410-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45791.70907407408</v>
+        <v>45155</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.8</v>
+        <v>20.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2004,14 +2004,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 45406-2025</t>
+          <t>A 67005-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45922.42936342592</v>
+        <v>44522</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>9.1</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>44791.64837962963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45327</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2175,14 +2175,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 35300-2025</t>
+          <t>A 8486-2026</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45854.41511574074</v>
+        <v>46064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2232,14 +2232,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 35198-2025</t>
+          <t>A 65836-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45853</v>
+        <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2289,14 +2289,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 35193-2025</t>
+          <t>A 12154-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45853</v>
+        <v>44998</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2346,14 +2346,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 65836-2021</t>
+          <t>A 37415-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44517</v>
+        <v>45155</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>6.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2403,14 +2403,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 12154-2023</t>
+          <t>A 12146-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44998</v>
+        <v>44998.47842592592</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2460,14 +2460,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 37415-2023</t>
+          <t>A 11989-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45155</v>
+        <v>45728.60074074074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2517,14 +2517,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 8486-2026</t>
+          <t>A 23370-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>46064</v>
+        <v>45791.70907407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45588</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45853</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>45155</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45327</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44851</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>45240</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44998.49157407408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45119.49833333334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>45854.41511574074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>45853</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45922.42936342592</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44719</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>45747</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45155</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44522</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>44791.64837962963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45327</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>46064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44998</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45155</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44998.47842592592</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45728.60074074074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45791.70907407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>

--- a/Översikt HÅBO.xlsx
+++ b/Översikt HÅBO.xlsx
@@ -575,7 +575,7 @@
         <v>45784.72858796296</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45408</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45588</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>45853</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>45155</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>45327</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>45922.65181712963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44851</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>45852</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44473</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>45240</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>44998.49157407408</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45119.49833333334</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1602,7 +1602,7 @@
         <v>45854.41511574074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>45853</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45922.42936342592</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>44719</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>45853</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>45747</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45155</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44522</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         <v>44791.64837962963</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>45327</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>46064</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44517</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         <v>44998</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45155</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44998.47842592592</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45728.60074074074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45791.70907407408</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
